--- a/data/output/Pedido_Semana_07_21022026_semillas.xlsx
+++ b/data/output/Pedido_Semana_07_21022026_semillas.xlsx
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S5" s="2" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="2" t="n">
         <v>0</v>
@@ -1314,13 +1314,13 @@
         <v>0</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" s="2" t="n">
         <v>2</v>
       </c>
       <c r="T10" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U10" s="8" t="n">
         <v>0</v>
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S11" s="2" t="n">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S12" s="2" t="n">
         <v>0</v>
@@ -1719,13 +1719,13 @@
         <v>0</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T15" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" s="8" t="n">
         <v>0</v>
@@ -1800,7 +1800,7 @@
         <v>2</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="2" t="n">
         <v>0</v>
@@ -1881,7 +1881,7 @@
         <v>3</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S17" s="2" t="n">
         <v>0</v>
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S23" s="2" t="n">
         <v>0</v>
@@ -2610,7 +2610,7 @@
         <v>3</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" s="2" t="n">
         <v>0</v>
@@ -2691,13 +2691,13 @@
         <v>0</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S27" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T27" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27" s="8" t="n">
         <v>0</v>
@@ -3258,7 +3258,7 @@
         <v>7</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S34" s="2" t="n">
         <v>0</v>
@@ -3420,13 +3420,13 @@
         <v>0</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T36" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U36" s="8" t="n">
         <v>0</v>
@@ -3501,13 +3501,13 @@
         <v>0</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S37" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T37" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U37" s="8" t="n">
         <v>0</v>
@@ -3582,16 +3582,16 @@
         <v>7</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S38" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T38" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38" s="8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" hidden="1">
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S39" s="2" t="n">
         <v>0</v>
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="C43" s="5" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44">
